--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DPAREJA/git/SGP/Requerimientos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcCompleted="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -206,9 +219,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -241,9 +254,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -449,23 +462,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,55 +486,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -529,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -537,7 +550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -545,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -553,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -561,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -569,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -577,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -585,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -593,7 +606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -601,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -609,7 +622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DPAREJA/git/SGP/Requerimientos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15260" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,82 +30,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">Sistema de Gestión de Proyectos (SGP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Gerentes de Proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Desarrolladores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Arquitectos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Test.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Ingeniero de Soporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Actividades dentro del Proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Tiempos en las actividades del Proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de datos del cliente para donde va el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Requerimientos del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de Historias de Usuario para desarrollo del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio de sesión como un usuario registrado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperar clave de usuarios en el sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar clave de usuarios en el sistema.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registrar costo por rol en el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de casos de soporte.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de contrato de soporte adquirido con el cliente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registro de casos de prueba.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambio de estado en la administración del proyecto.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Sistema de Gestión de Proyectos (SGP)</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Registro de Proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de Gerentes de Proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de Desarrolladores.</t>
+  </si>
+  <si>
+    <t>Registro de Arquitectos.</t>
+  </si>
+  <si>
+    <t>Registro de Test.</t>
+  </si>
+  <si>
+    <t>Registro de Ingeniero de Soporte</t>
+  </si>
+  <si>
+    <t>Registro de Actividades dentro del Proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de Tiempos en las actividades del Proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de datos del cliente para donde va el proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de Requerimientos del proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de Historias de Usuario para desarrollo del proyecto.</t>
+  </si>
+  <si>
+    <t>Inicio de sesión como un usuario registrado.</t>
+  </si>
+  <si>
+    <t>Recuperar clave de usuarios en el sistema.</t>
+  </si>
+  <si>
+    <t>Cambiar clave de usuarios en el sistema.</t>
+  </si>
+  <si>
+    <t>Registrar costo por rol en el proyecto.</t>
+  </si>
+  <si>
+    <t>Registro de casos de soporte.</t>
+  </si>
+  <si>
+    <t>Registro de contrato de soporte adquirido con el cliente.</t>
+  </si>
+  <si>
+    <t>Registro de casos de prueba.</t>
+  </si>
+  <si>
+    <t>Cambio de estado en la administración del proyecto.</t>
+  </si>
+  <si>
+    <t>Editar un cliente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -104,22 +114,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -142,7 +137,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -150,65 +145,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -267,36 +229,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
+    <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -304,168 +535,174 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -150,9 +150,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -164,6 +161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +513,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,181 +522,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DPAREJA/git/SGP/Requerimientos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpareja/SGP/Requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38AC78-CFBA-8C45-B976-BD1D3D4ED9CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15260" tabRatio="990"/>
+    <workbookView xWindow="3420" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +244,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -509,11 +513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpareja/SGP/Requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38AC78-CFBA-8C45-B976-BD1D3D4ED9CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EE45E3-7704-6345-8F59-B9F62DD17A78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpareja/SGP/Requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EE45E3-7704-6345-8F59-B9F62DD17A78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A086BC-4958-8149-9773-32187990A634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpareja/SGP/Requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A086BC-4958-8149-9773-32187990A634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7B651-00DA-CC49-B4FA-73BB71065293}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpareja/SGP/Requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7B651-00DA-CC49-B4FA-73BB71065293}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E786E1-5F54-9A44-9BE7-34B32A35D0BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Requerimientos/Tabla de requerimientos SGP.xlsx
+++ b/Requerimientos/Tabla de requerimientos SGP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpareja/SGP/Requerimientos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E786E1-5F54-9A44-9BE7-34B32A35D0BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1E6B12-EC4A-F243-A795-B4251B8A850D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="0" windowWidth="20480" windowHeight="15260" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
